--- a/myexcel.xlsx
+++ b/myexcel.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9504F48A-B64F-4219-BC78-054A46CF50EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36074DE7-2DEF-42EC-A145-A3E26D88718E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>erfkefkem</t>
   </si>
@@ -34,6 +34,12 @@
   </si>
   <si>
     <t>wekmkwem</t>
+  </si>
+  <si>
+    <t>iyggjhjhbhb</t>
+  </si>
+  <si>
+    <t>bjjnikmm</t>
   </si>
 </sst>
 </file>
@@ -354,7 +360,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -368,6 +374,12 @@
       <c r="C4" t="s">
         <v>1</v>
       </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F6" t="s">
